--- a/data/trans_dic/P22$ss-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,76; 97,99</t>
+          <t>94,84; 97,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,56; 97,73</t>
+          <t>93,84; 97,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>94,56; 98,2</t>
+          <t>94,62; 98,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>93,46; 99,14</t>
+          <t>93,49; 99,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,5; 95,99</t>
+          <t>91,36; 95,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,92; 98,4</t>
+          <t>95,1; 98,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,24; 98,33</t>
+          <t>95,07; 98,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,36; 99,65</t>
+          <t>93,39; 99,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,81; 96,59</t>
+          <t>93,86; 96,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>95,12; 97,64</t>
+          <t>95,08; 97,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>95,45; 97,99</t>
+          <t>95,64; 97,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,19; 98,85</t>
+          <t>94,9; 98,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,41; 97,41</t>
+          <t>94,3; 97,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,45; 97,13</t>
+          <t>93,49; 96,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,98; 97,26</t>
+          <t>93,89; 97,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,78; 98,64</t>
+          <t>93,65; 98,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,01; 96,68</t>
+          <t>93,01; 96,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>94,07; 97,57</t>
+          <t>94,07; 97,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>94,54; 97,56</t>
+          <t>94,4; 97,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,31; 99,27</t>
+          <t>96,36; 99,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94,32; 96,65</t>
+          <t>94,26; 96,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>94,51; 96,88</t>
+          <t>94,49; 96,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>94,76; 97,08</t>
+          <t>94,92; 97,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>96,0; 98,58</t>
+          <t>96,06; 98,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,73; 97,36</t>
+          <t>93,76; 97,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,31; 96,28</t>
+          <t>92,38; 96,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,43; 95,51</t>
+          <t>91,52; 95,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,53; 97,79</t>
+          <t>94,47; 97,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,32; 97,42</t>
+          <t>94,2; 97,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,71; 97,89</t>
+          <t>94,62; 97,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>93,12; 96,78</t>
+          <t>93,2; 96,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,89; 97,61</t>
+          <t>94,97; 97,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>94,55; 96,98</t>
+          <t>94,63; 96,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>94,2; 96,77</t>
+          <t>94,1; 96,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>92,91; 95,65</t>
+          <t>92,91; 95,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>95,24; 97,47</t>
+          <t>95,35; 97,51</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,88; 94,84</t>
+          <t>89,91; 94,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,38; 96,63</t>
+          <t>92,01; 96,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,35; 96,28</t>
+          <t>92,26; 96,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,04; 98,73</t>
+          <t>94,97; 98,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,84; 97,35</t>
+          <t>93,56; 97,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,73; 95,99</t>
+          <t>91,74; 95,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,33; 97,3</t>
+          <t>94,18; 97,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,56; 97,68</t>
+          <t>95,45; 97,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,73; 95,58</t>
+          <t>92,68; 95,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,89; 95,84</t>
+          <t>92,66; 95,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>93,72; 96,38</t>
+          <t>93,97; 96,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,65; 98,03</t>
+          <t>95,74; 98,03</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,94; 98,32</t>
+          <t>94,5; 98,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,57; 96,78</t>
+          <t>91,53; 96,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>91,54; 96,07</t>
+          <t>91,36; 96,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,3; 97,99</t>
+          <t>95,56; 98,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>90,35; 95,47</t>
+          <t>90,27; 95,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,91; 98,26</t>
+          <t>94,04; 98,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>94,65; 98,3</t>
+          <t>94,79; 98,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,06; 97,49</t>
+          <t>95,13; 97,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>93,49; 96,51</t>
+          <t>93,55; 96,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93,66; 96,99</t>
+          <t>93,84; 96,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>93,88; 96,67</t>
+          <t>93,91; 96,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>95,7; 97,46</t>
+          <t>95,71; 97,5</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>92,87; 97,46</t>
+          <t>92,79; 97,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,32; 96,83</t>
+          <t>90,48; 96,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,34; 98,02</t>
+          <t>93,5; 97,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,46; 96,28</t>
+          <t>92,49; 96,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>93,62; 97,63</t>
+          <t>93,11; 97,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>96,11; 99,22</t>
+          <t>95,97; 99,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,54; 97,89</t>
+          <t>93,26; 97,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,31; 99,06</t>
+          <t>95,27; 99,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,99; 97,04</t>
+          <t>93,99; 97,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,48; 97,74</t>
+          <t>94,27; 97,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,46; 97,4</t>
+          <t>94,19; 97,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>94,77; 98,11</t>
+          <t>94,74; 98,09</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>93,67; 98,78</t>
+          <t>93,4; 98,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>95,57; 99,2</t>
+          <t>95,33; 99,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95,37; 99,02</t>
+          <t>95,29; 98,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>93,69; 97,56</t>
+          <t>93,9; 97,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,59; 99,65</t>
+          <t>96,58; 99,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,75; 98,67</t>
+          <t>94,64; 98,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,42; 99,7</t>
+          <t>97,26; 99,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>95,93; 98,3</t>
+          <t>96,04; 98,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>96,13; 99,03</t>
+          <t>96,39; 99,07</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>95,91; 98,7</t>
+          <t>95,83; 98,65</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>97,12; 99,12</t>
+          <t>97,19; 99,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,68; 97,63</t>
+          <t>95,62; 97,66</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,01; 96,37</t>
+          <t>94,93; 96,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>94,45; 96,01</t>
+          <t>94,31; 95,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>94,42; 95,91</t>
+          <t>94,27; 95,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>95,78; 97,42</t>
+          <t>95,78; 97,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>94,7; 96,15</t>
+          <t>94,72; 96,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>95,58; 96,97</t>
+          <t>95,61; 97,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>95,83; 97,05</t>
+          <t>95,87; 97,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>96,56; 97,7</t>
+          <t>96,47; 97,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>95,04; 96,13</t>
+          <t>95,06; 96,09</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>95,28; 96,32</t>
+          <t>95,3; 96,31</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>95,37; 96,31</t>
+          <t>95,25; 96,29</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>96,33; 97,33</t>
+          <t>96,34; 97,32</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguridad Social</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>476618</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>435388</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>403783</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>389076</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>439302</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>417669</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>384120</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>306440</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>915920</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>853057</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>787903</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>695516</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>467667; 482935</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>425232; 443063</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>395162; 409308</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>373932; 396769</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>427084; 447266</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>409163; 423491</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>376263; 389758</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>292512; 312091</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>901673; 928339</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>839914; 862916</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>777926; 796497</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>676840; 705770</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1237</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1099</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>704395</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>656657</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>565763</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>410022</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>594366</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>586012</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>540774</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>501810</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1298761</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1242669</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1106537</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>911832</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>691227; 713957</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>642349; 666216</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>554444; 574273</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>396662; 416817</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>581790; 604111</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>574073; 594240</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>530227; 548448</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>492741; 507409</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1280457; 1312874</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1225907; 1256919</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1093630; 1119694</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>898013; 922127</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1265</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1346</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>611890</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>644889</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>626092</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>517408</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>662687</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>685937</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>629257</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>523473</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1274577</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1330826</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1255348</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1040881</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>598810; 620901</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>629934; 655683</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>611529; 637797</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>506654; 524666</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>649730; 671798</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>672591; 694956</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>616425; 639907</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>515179; 529344</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1257085; 1288078</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1310491; 1346413</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1235296; 1270891</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1028689; 1051903</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1741</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>480860</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>582923</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>610624</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>860148</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>492417</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>580261</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>622686</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>689312</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>973276</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1163183</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1233312</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1549460</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>465730; 490753</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>565482; 593648</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>596048; 621977</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>843137; 876595</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>481341; 500501</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>565289; 591122</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>610402; 631949</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>680479; 695624</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>956942; 987983</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1140501; 1179203</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1216077; 1249051</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1532450; 1569169</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1607</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>374647</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>406070</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>446993</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>544032</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>376532</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>432476</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>481436</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>526095</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>751179</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>838546</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>928429</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1070126</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>365442; 380136</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>393044; 414624</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>434655; 456816</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>536292; 550507</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>363915; 385313</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>421090; 439145</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>470970; 489085</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>519019; 532397</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>738890; 761896</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>823150; 850358</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>913417; 940773</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1059284; 1079102</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1334</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>279903</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>292444</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>321667</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>348339</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>328805</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>347497</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>361006</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>591421</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>608708</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>639941</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>682673</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>939759</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>271499; 285363</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>280282; 300163</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>312583; 327492</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>340521; 354162</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>319309; 335023</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>339722; 351221</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>350706; 368064</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>579571; 602946</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>597330; 616855</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>625743; 648611</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>669127; 691951</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>925194; 957870</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>244725</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>250451</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>271841</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>329321</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>378594</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>395128</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>414637</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>531226</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>623320</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>645579</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>686477</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>194320; 205601</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>238191; 247875</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>244898; 253845</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>265508; 276240</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>322488; 332712</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>368136; 384056</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>387965; 397686</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>408982; 419140</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>522372; 536922</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>612209; 630191</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>637471; 650704</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>677586; 692022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>3073</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3078</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3247</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3188</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>6223</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>6258</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>6295</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>8441</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3130219</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3263096</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3225373</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3340866</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3223430</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3428447</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3414408</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>3553187</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>6353647</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>6691543</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>6639782</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>6894053</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3104184; 3152618</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3230977; 3286587</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3195178; 3251103</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3313703; 3368767</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3198770; 3247499</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>3401956; 3451750</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>3392445; 3436861</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>3530609; 3575358</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>6319080; 6387327</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>6656193; 6726464</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>6599057; 6671207</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>6859215; 6928461</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>